--- a/generated_docs/WR_89719272_WeekEnding_062925.xlsx
+++ b/generated_docs/WR_89719272_WeekEnding_062925.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>06/28/2025 to 06/29/25</t>
+          <t>06/23/2025 to 06/29/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89719272_WeekEnding_062925.xlsx
+++ b/generated_docs/WR_89719272_WeekEnding_062925.xlsx
@@ -133,10 +133,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -144,6 +140,10 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I36"/>
+  <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2506.72</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -737,22 +737,22 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -761,461 +761,631 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E17" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13" t="inlineStr"/>
+      <c r="H17" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H17" s="13" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="inlineStr">
+      <c r="H18" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>Friday (06/27/2025)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr">
+      <c r="E22" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F21" s="8" t="inlineStr">
+      <c r="F22" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G21" s="8" t="inlineStr">
+      <c r="G22" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="9" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B22" s="9" t="inlineStr">
+      <c r="B23" s="9" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D22" s="9" t="inlineStr">
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E22" s="9" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="10" t="inlineStr"/>
-      <c r="H22" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="inlineStr">
+      <c r="G23" s="10" t="inlineStr"/>
+      <c r="H23" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="inlineStr">
         <is>
           <t>Point 33</t>
         </is>
       </c>
-      <c r="B23" s="14" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C23" s="14" t="inlineStr">
+      <c r="C24" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D23" s="14" t="inlineStr">
+      <c r="D24" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E23" s="14" t="inlineStr">
+      <c r="E24" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F23" s="15" t="n">
+      <c r="F24" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="15" t="inlineStr"/>
-      <c r="H23" s="16" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="inlineStr">
+      <c r="G24" s="13" t="inlineStr"/>
+      <c r="H24" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>Point 33</t>
         </is>
       </c>
-      <c r="B24" s="9" t="inlineStr">
+      <c r="B25" s="9" t="inlineStr">
         <is>
           <t>CNA-TM</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D24" s="9" t="inlineStr">
+      <c r="D25" s="9" t="inlineStr">
         <is>
           <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
-      <c r="E24" s="9" t="inlineStr">
+      <c r="E25" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F25" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="10" t="inlineStr"/>
-      <c r="H24" s="11" t="n">
-        <v>107.92</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B25" s="14" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C25" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E25" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F25" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="15" t="inlineStr"/>
-      <c r="H25" s="16" t="n">
-        <v>107.92</v>
+      <c r="G25" s="10" t="inlineStr"/>
+      <c r="H25" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="12" t="inlineStr">
         <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D26" s="12" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E26" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13" t="inlineStr"/>
+      <c r="H26" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="15" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H26" s="13" t="n">
-        <v>1172.94</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
+      <c r="H27" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>Saturday (06/28/2025)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C30" s="8" t="inlineStr">
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
+      <c r="D31" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E30" s="8" t="inlineStr">
+      <c r="E31" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F30" s="8" t="inlineStr">
+      <c r="F31" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G30" s="8" t="inlineStr">
+      <c r="G31" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H30" s="8" t="inlineStr">
+      <c r="H31" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Point 33</t>
         </is>
       </c>
-      <c r="B31" s="9" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D31" s="9" t="inlineStr">
+      <c r="D32" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E31" s="9" t="inlineStr">
+      <c r="E32" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F31" s="10" t="n">
+      <c r="F32" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="10" t="inlineStr"/>
-      <c r="H31" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="14" t="inlineStr">
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="inlineStr">
         <is>
           <t>Point 33</t>
         </is>
       </c>
-      <c r="B32" s="14" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C32" s="14" t="inlineStr">
+      <c r="C33" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D32" s="14" t="inlineStr">
+      <c r="D33" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E32" s="14" t="inlineStr">
+      <c r="E33" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F32" s="15" t="n">
+      <c r="F33" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="15" t="inlineStr"/>
-      <c r="H32" s="16" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
+      <c r="G33" s="13" t="inlineStr"/>
+      <c r="H33" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>Point 33</t>
         </is>
       </c>
-      <c r="B33" s="9" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr">
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D33" s="9" t="inlineStr">
+      <c r="D34" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E33" s="9" t="inlineStr">
+      <c r="E34" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F33" s="10" t="n">
+      <c r="F34" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="10" t="inlineStr"/>
-      <c r="H33" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="14" t="inlineStr">
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
         <is>
           <t>Point 35</t>
         </is>
       </c>
-      <c r="B34" s="14" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C34" s="14" t="inlineStr">
+      <c r="C35" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D34" s="14" t="inlineStr">
+      <c r="D35" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E34" s="14" t="inlineStr">
+      <c r="E35" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F34" s="15" t="n">
+      <c r="F35" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G34" s="15" t="inlineStr"/>
-      <c r="H34" s="16" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="inlineStr">
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>Point 35</t>
         </is>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D35" s="9" t="inlineStr">
+      <c r="D36" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E35" s="9" t="inlineStr">
+      <c r="E36" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F36" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="10" t="inlineStr"/>
-      <c r="H35" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="inlineStr">
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H36" s="13" t="n">
-        <v>855.2299999999999</v>
+      <c r="H41" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A41:G41"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>

--- a/generated_docs/WR_89719272_WeekEnding_062925.xlsx
+++ b/generated_docs/WR_89719272_WeekEnding_062925.xlsx
@@ -133,6 +133,10 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -140,10 +144,6 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I41"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>2506.72</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -737,22 +733,22 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -761,631 +757,461 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Friday (06/27/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10" t="inlineStr"/>
+      <c r="H22" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B23" s="14" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C23" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E23" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15" t="inlineStr"/>
+      <c r="H23" s="16" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="inlineStr"/>
+      <c r="H24" s="11" t="n">
+        <v>107.92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="inlineStr">
+        <is>
           <t>Point 35</t>
         </is>
       </c>
-      <c r="B17" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C17" s="12" t="inlineStr">
+      <c r="B25" s="14" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C25" s="14" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D17" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E17" s="12" t="inlineStr">
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E25" s="14" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F25" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="13" t="inlineStr"/>
-      <c r="H17" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H18" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>Friday (06/27/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F22" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G22" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B23" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C23" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10" t="inlineStr"/>
-      <c r="H23" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B24" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C24" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D24" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E24" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13" t="inlineStr"/>
-      <c r="H24" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C25" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10" t="inlineStr"/>
-      <c r="H25" s="11" t="n">
-        <v>0</v>
+      <c r="G25" s="15" t="inlineStr"/>
+      <c r="H25" s="16" t="n">
+        <v>107.92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="12" t="inlineStr">
         <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>1172.94</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>Saturday (06/28/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G30" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10" t="inlineStr"/>
+      <c r="H31" s="11" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="14" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B32" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C32" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E32" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15" t="inlineStr"/>
+      <c r="H32" s="16" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10" t="inlineStr"/>
+      <c r="H33" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="14" t="inlineStr">
+        <is>
           <t>Point 35</t>
         </is>
       </c>
-      <c r="B26" s="12" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C26" s="12" t="inlineStr">
+      <c r="B34" s="14" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C34" s="14" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D26" s="12" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E26" s="12" t="inlineStr">
+      <c r="D34" s="14" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E34" s="14" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F34" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G26" s="13" t="inlineStr"/>
-      <c r="H26" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="15" t="inlineStr">
+      <c r="G34" s="15" t="inlineStr"/>
+      <c r="H34" s="16" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E35" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10" t="inlineStr"/>
+      <c r="H35" s="11" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H27" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>Saturday (06/28/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G31" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H31" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C32" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10" t="inlineStr"/>
-      <c r="H32" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B33" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C33" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D33" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E33" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13" t="inlineStr"/>
-      <c r="H33" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10" t="inlineStr"/>
-      <c r="H34" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B35" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E35" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="13" t="inlineStr"/>
-      <c r="H35" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E36" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10" t="inlineStr"/>
-      <c r="H36" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C37" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D37" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13" t="inlineStr"/>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C38" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E38" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="10" t="inlineStr"/>
-      <c r="H38" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C39" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D39" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="13" t="inlineStr"/>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H41" s="16" t="n">
-        <v>0</v>
+      <c r="H36" s="13" t="n">
+        <v>855.2299999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A29:H29"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
